--- a/practice folder/excelFile.xlsx
+++ b/practice folder/excelFile.xlsx
@@ -401,7 +401,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
